--- a/회계/회계.xlsx
+++ b/회계/회계.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>날짜/시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제홀딩상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015.06.27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +102,33 @@
   </si>
   <si>
     <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.07.01</t>
+  </si>
+  <si>
+    <t>2015.07.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>£54.96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제정보 이메일 이름 : Royal Albert Hall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,6 +237,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +538,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,9 +560,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -550,7 +576,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -570,7 +596,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -590,7 +616,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -610,7 +636,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -624,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -642,9 +668,9 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -659,43 +685,64 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="8">
+        <v>464376</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5">
+        <v>335624</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -705,7 +752,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -715,7 +762,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -725,7 +772,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -735,7 +782,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>

--- a/회계/회계.xlsx
+++ b/회계/회계.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>날짜/시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +130,26 @@
   </si>
   <si>
     <t>결제정보 이메일 이름 : Royal Albert Hall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차납부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차납부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차납부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +172,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -214,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,6 +269,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +556,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -827,4 +858,231 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7">
+        <v>300000</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1200000</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1960000</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7">
+        <v>239360</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7">
+        <v>200000</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>3899360</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/회계/회계.xlsx
+++ b/회계/회계.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>날짜/시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홀딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제정보 이메일 이름 : Royal Albert Hall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +146,10 @@
   </si>
   <si>
     <t>회비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저가항공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -767,16 +767,18 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="8">
+        <v>99193</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -785,13 +787,15 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5">
+        <v>236431</v>
+      </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -864,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -895,7 +899,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7">
         <v>300000</v>
@@ -908,7 +912,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7">
         <v>1200000</v>
@@ -921,7 +925,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7">
         <v>1960000</v>
@@ -934,7 +938,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7">
         <v>239360</v>
@@ -947,7 +951,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7">
         <v>200000</v>
@@ -959,24 +963,28 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
-        <v>3899360</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6">
+        <v>175000</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>4074360</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>

--- a/회계/회계.xlsx
+++ b/회계/회계.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10275" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>날짜/시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,22 @@
   </si>
   <si>
     <t>저가항공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,80 €</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제정보 이메일 이름 :  Confirmacion de venta Renfe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +195,14 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -242,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +296,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -799,63 +826,129 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>800000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7">
+        <v>200000</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>200000</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7">
+        <v>200000</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
+        <v>200000</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5">
+        <v>636431</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I23" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -868,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -954,7 +1047,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="7">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -982,7 +1075,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
-        <v>4074360</v>
+        <v>4274360</v>
       </c>
       <c r="G8" s="4"/>
     </row>

--- a/회계/회계.xlsx
+++ b/회계/회계.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>날짜/시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,15 +157,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>170,80 €</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>홀딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결제정보 이메일 이름 :  Confirmacion de venta Renfe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라멩고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제정보 이메일 이름 :   Ticket selling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,6 +177,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +307,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,9 +848,9 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -852,9 +866,9 @@
       <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -870,9 +884,9 @@
       <c r="E16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -886,9 +900,9 @@
         <v>9</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
@@ -902,9 +916,9 @@
         <v>8</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -922,8 +936,8 @@
       <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>33</v>
+      <c r="C20" s="12">
+        <v>170.8</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -932,10 +946,10 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -947,7 +961,34 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="11">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="10"/>
     </row>
   </sheetData>

--- a/회계/회계.xlsx
+++ b/회계/회계.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>날짜/시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>결제정보 이메일 이름 :   Ticket selling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바르셀로나 카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98,100원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,16 +606,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:H18"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
@@ -915,7 +927,9 @@
       <c r="D18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -928,7 +942,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5">
-        <v>636431</v>
+        <v>836431</v>
       </c>
       <c r="H19" s="4"/>
     </row>
@@ -990,6 +1004,34 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5">
+        <v>738331</v>
+      </c>
+      <c r="H25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/회계/회계.xlsx
+++ b/회계/회계.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>날짜/시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,26 @@
   </si>
   <si>
     <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.07.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.07.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.07.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.07.09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -617,7 +637,8 @@
     <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -839,7 +860,7 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -851,7 +872,9 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
@@ -865,7 +888,9 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
@@ -883,7 +908,9 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
@@ -901,7 +928,9 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
@@ -911,13 +940,17 @@
       <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
@@ -935,18 +968,21 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5">
-        <v>836431</v>
+        <v>1036431</v>
       </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
@@ -967,6 +1003,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
       <c r="D21" s="3"/>
@@ -976,6 +1013,9 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -996,6 +1036,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
       <c r="D23" s="3"/>
@@ -1006,6 +1047,9 @@
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1023,13 +1067,16 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5">
-        <v>738331</v>
+        <v>938331</v>
       </c>
       <c r="H25" s="4"/>
     </row>

--- a/회계/회계.xlsx
+++ b/회계/회계.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>날짜/시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홀딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제정보 이메일 이름 :  Confirmacion de venta Renfe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,6 +198,30 @@
   </si>
   <si>
     <t>2015.07.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43,068원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220,714원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>264,529원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93,000원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,6 +364,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -941,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -961,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -981,7 +1004,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -996,89 +1019,144 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="11">
-        <v>32</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="11">
+        <v>32</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="10"/>
+      <c r="H23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5">
-        <v>938331</v>
-      </c>
-      <c r="H25" s="4"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5">
+        <v>410020</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5">
+        <v>317020</v>
+      </c>
+      <c r="H28" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/회계/회계.xlsx
+++ b/회계/회계.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>날짜/시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>93,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.07.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,500원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴족시간 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -813,7 +825,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>18</v>
@@ -1157,6 +1169,42 @@
         <v>317020</v>
       </c>
       <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5">
+        <v>305520</v>
+      </c>
+      <c r="H30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
